--- a/CS335/CS335 Projects Distributions.xlsx
+++ b/CS335/CS335 Projects Distributions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\xampp tay\htdocs\staffcard\CS335\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07FD13-4C23-4A9B-ABFC-1DC05FE9487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="-120" windowWidth="19650" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -2963,7 +2969,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3517,12 +3523,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3545,6 +3545,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="255">
@@ -4014,105 +4020,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
+      <pane ySplit="8" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="38" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>681</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>679</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>677</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>678</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
         <v>682</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
         <v>683</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>590</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -4158,7 +4164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="11" t="s">
         <v>593</v>
@@ -4179,7 +4185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="11" t="s">
         <v>594</v>
@@ -4200,7 +4206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="11" t="s">
         <v>595</v>
@@ -4221,7 +4227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>596</v>
@@ -4242,7 +4248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
         <v>597</v>
@@ -4263,7 +4269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="11" t="s">
         <v>598</v>
@@ -4284,7 +4290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>931</v>
@@ -4305,7 +4311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="12" t="s">
         <v>609</v>
@@ -4326,7 +4332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="12" t="s">
         <v>611</v>
@@ -4347,7 +4353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="17" t="s">
         <v>593</v>
@@ -4391,7 +4397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="17" t="s">
         <v>594</v>
@@ -4412,7 +4418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="17" t="s">
         <v>600</v>
@@ -4433,7 +4439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="17" t="s">
         <v>601</v>
@@ -4454,7 +4460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="17" t="s">
         <v>602</v>
@@ -4475,7 +4481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="17" t="s">
         <v>603</v>
@@ -4496,7 +4502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="17" t="s">
         <v>604</v>
@@ -4517,7 +4523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="18" t="s">
         <v>609</v>
@@ -4538,7 +4544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="20" t="s">
         <v>612</v>
@@ -4559,7 +4565,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="21" t="s">
         <v>593</v>
@@ -4603,7 +4609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="21" t="s">
         <v>594</v>
@@ -4624,7 +4630,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="21" t="s">
         <v>600</v>
@@ -4645,7 +4651,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="21" t="s">
         <v>606</v>
@@ -4666,7 +4672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="21" t="s">
         <v>607</v>
@@ -4687,7 +4693,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="21" t="s">
         <v>608</v>
@@ -4708,7 +4714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="21" t="s">
         <v>932</v>
@@ -4729,7 +4735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="22" t="s">
         <v>609</v>
@@ -4750,7 +4756,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="22" t="s">
         <v>610</v>
@@ -4771,7 +4777,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34">
         <v>4</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35"/>
       <c r="B40" s="23" t="s">
         <v>593</v>
@@ -4815,7 +4821,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="35"/>
       <c r="B41" s="23" t="s">
         <v>594</v>
@@ -4836,7 +4842,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35"/>
       <c r="B42" s="23" t="s">
         <v>614</v>
@@ -4857,7 +4863,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="35"/>
       <c r="B43" s="23" t="s">
         <v>615</v>
@@ -4878,7 +4884,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="35"/>
       <c r="B44" s="23" t="s">
         <v>616</v>
@@ -4899,7 +4905,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35"/>
       <c r="B45" s="23" t="s">
         <v>617</v>
@@ -4920,7 +4926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="35"/>
       <c r="B46" s="23" t="s">
         <v>618</v>
@@ -4941,7 +4947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35"/>
       <c r="B47" s="24" t="s">
         <v>609</v>
@@ -4962,7 +4968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36"/>
       <c r="B48" s="16" t="s">
         <v>619</v>
@@ -4983,7 +4989,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>5</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="26" t="s">
         <v>593</v>
@@ -5027,7 +5033,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32"/>
       <c r="B51" s="26" t="s">
         <v>594</v>
@@ -5048,7 +5054,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" s="26" t="s">
         <v>621</v>
@@ -5069,7 +5075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
       <c r="B53" s="26" t="s">
         <v>622</v>
@@ -5090,7 +5096,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
       <c r="B54" s="26" t="s">
         <v>623</v>
@@ -5111,7 +5117,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="26" t="s">
         <v>624</v>
@@ -5132,7 +5138,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
       <c r="B56" s="26" t="s">
         <v>625</v>
@@ -5153,7 +5159,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
       <c r="B57" s="27" t="s">
         <v>609</v>
@@ -5174,7 +5180,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="25" t="s">
         <v>626</v>
@@ -5195,7 +5201,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="34">
         <v>6</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="B60" s="23" t="s">
         <v>593</v>
@@ -5239,7 +5245,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="B61" s="23" t="s">
         <v>594</v>
@@ -5260,7 +5266,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="23" t="s">
         <v>628</v>
@@ -5281,7 +5287,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="B63" s="23" t="s">
         <v>629</v>
@@ -5302,7 +5308,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
       <c r="B64" s="23" t="s">
         <v>630</v>
@@ -5323,7 +5329,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="B65" s="23" t="s">
         <v>631</v>
@@ -5344,7 +5350,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="B66" s="23" t="s">
         <v>632</v>
@@ -5365,7 +5371,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="B67" s="24" t="s">
         <v>609</v>
@@ -5386,7 +5392,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36"/>
       <c r="B68" s="16" t="s">
         <v>626</v>
@@ -5407,7 +5413,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>7</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" s="26" t="s">
         <v>593</v>
@@ -5451,7 +5457,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="32"/>
       <c r="B71" s="26" t="s">
         <v>594</v>
@@ -5472,7 +5478,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" s="26" t="s">
         <v>634</v>
@@ -5493,7 +5499,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="32"/>
       <c r="B73" s="26" t="s">
         <v>635</v>
@@ -5514,7 +5520,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
       <c r="B74" s="26" t="s">
         <v>636</v>
@@ -5535,7 +5541,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" s="26" t="s">
         <v>637</v>
@@ -5556,7 +5562,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" s="26" t="s">
         <v>638</v>
@@ -5577,7 +5583,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="27" t="s">
         <v>609</v>
@@ -5598,7 +5604,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="25" t="s">
         <v>639</v>
@@ -5619,7 +5625,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="34">
         <v>8</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="35"/>
       <c r="B80" s="23" t="s">
         <v>593</v>
@@ -5663,7 +5669,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="35"/>
       <c r="B81" s="23" t="s">
         <v>594</v>
@@ -5684,7 +5690,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="35"/>
       <c r="B82" s="23" t="s">
         <v>641</v>
@@ -5705,7 +5711,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="35"/>
       <c r="B83" s="23" t="s">
         <v>642</v>
@@ -5726,7 +5732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="35"/>
       <c r="B84" s="23" t="s">
         <v>643</v>
@@ -5747,7 +5753,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="35"/>
       <c r="B85" s="23" t="s">
         <v>644</v>
@@ -5768,7 +5774,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="35"/>
       <c r="B86" s="23" t="s">
         <v>645</v>
@@ -5789,7 +5795,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="35"/>
       <c r="B87" s="24" t="s">
         <v>609</v>
@@ -5810,7 +5816,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36"/>
       <c r="B88" s="16" t="s">
         <v>646</v>
@@ -5831,7 +5837,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>9</v>
       </c>
@@ -5854,7 +5860,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="32"/>
       <c r="B90" s="26" t="s">
         <v>593</v>
@@ -5875,7 +5881,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="32"/>
       <c r="B91" s="26" t="s">
         <v>594</v>
@@ -5896,7 +5902,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="B92" s="26" t="s">
         <v>648</v>
@@ -5917,7 +5923,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="32"/>
       <c r="B93" s="26" t="s">
         <v>649</v>
@@ -5938,7 +5944,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="32"/>
       <c r="B94" s="26" t="s">
         <v>600</v>
@@ -5959,7 +5965,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
       <c r="B95" s="26" t="s">
         <v>650</v>
@@ -5980,7 +5986,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="32"/>
       <c r="B96" s="26" t="s">
         <v>651</v>
@@ -6001,7 +6007,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="32"/>
       <c r="B97" s="27" t="s">
         <v>609</v>
@@ -6022,7 +6028,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="25" t="s">
         <v>652</v>
@@ -6043,7 +6049,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="34">
         <v>10</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="35"/>
       <c r="B100" s="23" t="s">
         <v>593</v>
@@ -6087,7 +6093,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="35"/>
       <c r="B101" s="23" t="s">
         <v>594</v>
@@ -6108,7 +6114,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="35"/>
       <c r="B102" s="23" t="s">
         <v>654</v>
@@ -6125,7 +6131,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="35"/>
       <c r="B103" s="23" t="s">
         <v>655</v>
@@ -6146,7 +6152,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="35"/>
       <c r="B104" s="23" t="s">
         <v>656</v>
@@ -6167,7 +6173,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="35"/>
       <c r="B105" s="23" t="s">
         <v>658</v>
@@ -6188,7 +6194,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="35"/>
       <c r="B106" s="23" t="s">
         <v>657</v>
@@ -6209,7 +6215,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="35"/>
       <c r="B107" s="24" t="s">
         <v>609</v>
@@ -6230,7 +6236,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36"/>
       <c r="B108" s="16" t="s">
         <v>652</v>
@@ -6251,7 +6257,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>11</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="32"/>
       <c r="B110" s="26" t="s">
         <v>593</v>
@@ -6293,7 +6299,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="32"/>
       <c r="B111" s="26" t="s">
         <v>594</v>
@@ -6312,7 +6318,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="32"/>
       <c r="B112" s="26" t="s">
         <v>660</v>
@@ -6333,7 +6339,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="32"/>
       <c r="B113" s="26" t="s">
         <v>661</v>
@@ -6354,7 +6360,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="32"/>
       <c r="B114" s="26" t="s">
         <v>662</v>
@@ -6375,7 +6381,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="32"/>
       <c r="B115" s="26" t="s">
         <v>663</v>
@@ -6396,7 +6402,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="32"/>
       <c r="B116" s="26" t="s">
         <v>598</v>
@@ -6417,7 +6423,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="32"/>
       <c r="B117" s="27" t="s">
         <v>609</v>
@@ -6438,7 +6444,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="25" t="s">
         <v>664</v>
@@ -6455,7 +6461,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="34">
         <v>12</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="35"/>
       <c r="B120" s="23" t="s">
         <v>593</v>
@@ -6503,7 +6509,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="35"/>
       <c r="B121" s="23" t="s">
         <v>594</v>
@@ -6524,7 +6530,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="35"/>
       <c r="B122" s="23" t="s">
         <v>666</v>
@@ -6545,7 +6551,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="35"/>
       <c r="B123" s="23" t="s">
         <v>667</v>
@@ -6566,7 +6572,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="35"/>
       <c r="B124" s="23" t="s">
         <v>668</v>
@@ -6587,7 +6593,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="35"/>
       <c r="B125" s="23" t="s">
         <v>669</v>
@@ -6608,7 +6614,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="35"/>
       <c r="B126" s="23" t="s">
         <v>670</v>
@@ -6629,7 +6635,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="35"/>
       <c r="B127" s="24" t="s">
         <v>609</v>
@@ -6650,7 +6656,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="36"/>
       <c r="B128" s="16" t="s">
         <v>680</v>
@@ -6671,7 +6677,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>13</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="32"/>
       <c r="B130" s="26" t="s">
         <v>593</v>
@@ -6707,7 +6713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="32"/>
       <c r="B131" s="26" t="s">
         <v>594</v>
@@ -6720,7 +6726,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="32"/>
       <c r="B132" s="26" t="s">
         <v>672</v>
@@ -6733,7 +6739,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="32"/>
       <c r="B133" s="26" t="s">
         <v>673</v>
@@ -6750,7 +6756,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="32"/>
       <c r="B134" s="26" t="s">
         <v>674</v>
@@ -6763,7 +6769,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="32"/>
       <c r="B135" s="26" t="s">
         <v>675</v>
@@ -6780,7 +6786,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="32"/>
       <c r="B136" s="26" t="s">
         <v>676</v>
@@ -6793,7 +6799,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="32"/>
       <c r="B137" s="27" t="s">
         <v>609</v>
@@ -6810,7 +6816,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="33"/>
       <c r="B138" s="25" t="s">
         <v>684</v>
@@ -6827,7 +6833,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="34">
         <v>14</v>
       </c>
@@ -6846,8 +6852,8 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A140" s="45"/>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="43"/>
       <c r="B140" s="23" t="s">
         <v>593</v>
       </c>
@@ -6863,8 +6869,8 @@
       <c r="F140" s="5"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A141" s="45"/>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="43"/>
       <c r="B141" s="23" t="s">
         <v>594</v>
       </c>
@@ -6880,8 +6886,8 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A142" s="45"/>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="43"/>
       <c r="B142" s="23" t="s">
         <v>934</v>
       </c>
@@ -6897,8 +6903,8 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A143" s="45"/>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="43"/>
       <c r="B143" s="23" t="s">
         <v>935</v>
       </c>
@@ -6914,8 +6920,8 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A144" s="45"/>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="43"/>
       <c r="B144" s="23" t="s">
         <v>937</v>
       </c>
@@ -6935,8 +6941,8 @@
         <v>722</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A145" s="45"/>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="43"/>
       <c r="B145" s="23" t="s">
         <v>936</v>
       </c>
@@ -6956,8 +6962,8 @@
         <v>727</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A146" s="45"/>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="43"/>
       <c r="B146" s="23" t="s">
         <v>938</v>
       </c>
@@ -6977,8 +6983,8 @@
         <v>731</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A147" s="45"/>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="43"/>
       <c r="B147" s="24" t="s">
         <v>609</v>
       </c>
@@ -6998,9 +7004,9 @@
         <v>736</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A148" s="46"/>
-      <c r="B148" s="40" t="s">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="44"/>
+      <c r="B148" s="38" t="s">
         <v>940</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -7019,7 +7025,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>15</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="32"/>
       <c r="B150" s="26" t="s">
         <v>593</v>
@@ -7063,7 +7069,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="32"/>
       <c r="B151" s="26" t="s">
         <v>594</v>
@@ -7084,7 +7090,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="32"/>
       <c r="B152" s="26" t="s">
         <v>941</v>
@@ -7105,7 +7111,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="32"/>
       <c r="B153" s="26" t="s">
         <v>942</v>
@@ -7126,7 +7132,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="32"/>
       <c r="B154" s="26" t="s">
         <v>943</v>
@@ -7147,7 +7153,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="32"/>
       <c r="B155" s="26" t="s">
         <v>944</v>
@@ -7168,7 +7174,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="32"/>
       <c r="B156" s="26" t="s">
         <v>945</v>
@@ -7189,7 +7195,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="32"/>
       <c r="B157" s="27" t="s">
         <v>609</v>
@@ -7210,9 +7216,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A158" s="44"/>
-      <c r="B158" s="39" t="s">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="42"/>
+      <c r="B158" s="37" t="s">
         <v>946</v>
       </c>
       <c r="C158" s="9" t="s">
@@ -7231,7 +7237,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="34">
         <v>16</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="35"/>
       <c r="B160" s="23" t="s">
         <v>593</v>
@@ -7275,7 +7281,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="35"/>
       <c r="B161" s="23" t="s">
         <v>594</v>
@@ -7296,9 +7302,9 @@
         <v>790</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="35"/>
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="40" t="s">
         <v>947</v>
       </c>
       <c r="C162" s="14" t="s">
@@ -7317,9 +7323,9 @@
         <v>805</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="35"/>
-      <c r="B163" s="42" t="s">
+      <c r="B163" s="40" t="s">
         <v>949</v>
       </c>
       <c r="C163" s="14" t="s">
@@ -7338,9 +7344,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="35"/>
-      <c r="B164" s="42" t="s">
+      <c r="B164" s="40" t="s">
         <v>950</v>
       </c>
       <c r="C164" s="14" t="s">
@@ -7359,9 +7365,9 @@
         <v>814</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="35"/>
-      <c r="B165" s="42" t="s">
+      <c r="B165" s="40" t="s">
         <v>951</v>
       </c>
       <c r="C165" s="14" t="s">
@@ -7380,9 +7386,9 @@
         <v>819</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="35"/>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="40" t="s">
         <v>625</v>
       </c>
       <c r="C166" s="14" t="s">
@@ -7401,9 +7407,9 @@
         <v>824</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A167" s="43"/>
-      <c r="B167" s="42" t="s">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="41"/>
+      <c r="B167" s="40" t="s">
         <v>952</v>
       </c>
       <c r="C167" s="14" t="s">
@@ -7422,9 +7428,9 @@
         <v>829</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A168" s="43"/>
-      <c r="B168" s="40" t="s">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="41"/>
+      <c r="B168" s="38" t="s">
         <v>965</v>
       </c>
       <c r="C168" s="14" t="s">
@@ -7443,7 +7449,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>17</v>
       </c>
@@ -7466,7 +7472,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="32"/>
       <c r="B170" s="21" t="s">
         <v>593</v>
@@ -7487,7 +7493,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="32"/>
       <c r="B171" s="21" t="s">
         <v>594</v>
@@ -7508,7 +7514,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="32"/>
       <c r="B172" s="21" t="s">
         <v>954</v>
@@ -7529,7 +7535,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="32"/>
       <c r="B173" s="21" t="s">
         <v>955</v>
@@ -7550,7 +7556,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="32"/>
       <c r="B174" s="21" t="s">
         <v>956</v>
@@ -7571,7 +7577,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="32"/>
       <c r="B175" s="21" t="s">
         <v>957</v>
@@ -7592,7 +7598,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="32"/>
       <c r="B176" s="21" t="s">
         <v>958</v>
@@ -7613,9 +7619,9 @@
         <v>869</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="32"/>
-      <c r="B177" s="39" t="s">
+      <c r="B177" s="37" t="s">
         <v>609</v>
       </c>
       <c r="C177" s="30" t="s">
@@ -7634,8 +7640,8 @@
         <v>873</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A178" s="41"/>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="39"/>
       <c r="B178" s="25" t="s">
         <v>959</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="34">
         <v>18</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="35"/>
       <c r="B180" s="23" t="s">
         <v>593</v>
@@ -7699,7 +7705,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="35"/>
       <c r="B181" s="23" t="s">
         <v>594</v>
@@ -7720,9 +7726,9 @@
         <v>893</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="35"/>
-      <c r="B182" s="42" t="s">
+      <c r="B182" s="40" t="s">
         <v>961</v>
       </c>
       <c r="C182" s="14" t="s">
@@ -7741,9 +7747,9 @@
         <v>731</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="35"/>
-      <c r="B183" s="42" t="s">
+      <c r="B183" s="40" t="s">
         <v>962</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -7762,9 +7768,9 @@
         <v>899</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="35"/>
-      <c r="B184" s="42" t="s">
+      <c r="B184" s="40" t="s">
         <v>963</v>
       </c>
       <c r="C184" s="14" t="s">
@@ -7783,9 +7789,9 @@
         <v>904</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="35"/>
-      <c r="B185" s="47" t="s">
+      <c r="B185" s="45" t="s">
         <v>964</v>
       </c>
       <c r="C185" s="14" t="s">
@@ -7804,11 +7810,11 @@
         <v>904</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>19</v>
       </c>
-      <c r="B186" s="48" t="s">
+      <c r="B186" s="46" t="s">
         <v>966</v>
       </c>
       <c r="C186" s="9" t="s">
@@ -7827,8 +7833,8 @@
         <v>910</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A187" s="44"/>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="42"/>
       <c r="B187" s="26" t="s">
         <v>970</v>
       </c>
@@ -7848,8 +7854,8 @@
         <v>915</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A188" s="44"/>
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="42"/>
       <c r="B188" s="26" t="s">
         <v>971</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="32"/>
       <c r="B189" s="26" t="s">
         <v>967</v>
@@ -7890,7 +7896,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="32"/>
       <c r="B190" s="26" t="s">
         <v>968</v>
@@ -7911,7 +7917,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="32"/>
       <c r="B191" s="26" t="s">
         <v>972</v>
@@ -7932,9 +7938,9 @@
         <v>766</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33"/>
-      <c r="B192" s="49" t="s">
+      <c r="B192" s="47" t="s">
         <v>969</v>
       </c>
       <c r="C192" s="30" t="s">

--- a/CS335/CS335 Projects Distributions.xlsx
+++ b/CS335/CS335 Projects Distributions.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\xampp tay\htdocs\staffcard\CS335\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07FD13-4C23-4A9B-ABFC-1DC05FE9487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-120" windowWidth="19650" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="-120" windowWidth="22320" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -2090,9 +2084,6 @@
     <t>List of staff and their next of kin</t>
   </si>
   <si>
-    <t>CS335 Projects: (Deadline: Week 11 Semester I, 2021)</t>
-  </si>
-  <si>
     <t>(3) Update admin.php to create data entry form</t>
   </si>
   <si>
@@ -2964,12 +2955,15 @@
   </si>
   <si>
     <t>Attachment (attach PDF file)</t>
+  </si>
+  <si>
+    <t>CS335 Projects: (Deadline: Week 11 Semester I, 2021/2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4020,30 +4014,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -4052,9 +4046,9 @@
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="49" t="s">
-        <v>681</v>
+        <v>972</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -4063,7 +4057,7 @@
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>679</v>
       </c>
@@ -4074,7 +4068,7 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="48" t="s">
         <v>677</v>
       </c>
@@ -4085,7 +4079,7 @@
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="48" t="s">
         <v>678</v>
       </c>
@@ -4096,9 +4090,9 @@
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -4107,9 +4101,9 @@
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="48" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -4118,7 +4112,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>590</v>
       </c>
@@ -4141,7 +4135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -4164,7 +4158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="11" t="s">
         <v>593</v>
@@ -4185,7 +4179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="11" t="s">
         <v>594</v>
@@ -4206,7 +4200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="11" t="s">
         <v>595</v>
@@ -4227,7 +4221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>596</v>
@@ -4248,7 +4242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
         <v>597</v>
@@ -4269,7 +4263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="11" t="s">
         <v>598</v>
@@ -4290,10 +4284,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -4311,7 +4305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="12" t="s">
         <v>609</v>
@@ -4332,7 +4326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="12" t="s">
         <v>611</v>
@@ -4353,7 +4347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -4376,7 +4370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="35"/>
       <c r="B20" s="17" t="s">
         <v>593</v>
@@ -4397,7 +4391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="17" t="s">
         <v>594</v>
@@ -4418,7 +4412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="17" t="s">
         <v>600</v>
@@ -4439,7 +4433,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="35"/>
       <c r="B23" s="17" t="s">
         <v>601</v>
@@ -4460,7 +4454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="35"/>
       <c r="B24" s="17" t="s">
         <v>602</v>
@@ -4481,7 +4475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="35"/>
       <c r="B25" s="17" t="s">
         <v>603</v>
@@ -4502,7 +4496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="35"/>
       <c r="B26" s="17" t="s">
         <v>604</v>
@@ -4523,7 +4517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="18" t="s">
         <v>609</v>
@@ -4544,7 +4538,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="20" t="s">
         <v>612</v>
@@ -4565,7 +4559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -4588,7 +4582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="21" t="s">
         <v>593</v>
@@ -4609,7 +4603,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="21" t="s">
         <v>594</v>
@@ -4630,7 +4624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="32"/>
       <c r="B32" s="21" t="s">
         <v>600</v>
@@ -4651,7 +4645,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="32"/>
       <c r="B33" s="21" t="s">
         <v>606</v>
@@ -4672,7 +4666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="21" t="s">
         <v>607</v>
@@ -4693,7 +4687,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="21" t="s">
         <v>608</v>
@@ -4714,10 +4708,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>140</v>
@@ -4735,7 +4729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="22" t="s">
         <v>609</v>
@@ -4756,7 +4750,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="22" t="s">
         <v>610</v>
@@ -4777,7 +4771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="34">
         <v>4</v>
       </c>
@@ -4800,7 +4794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="35"/>
       <c r="B40" s="23" t="s">
         <v>593</v>
@@ -4821,7 +4815,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="35"/>
       <c r="B41" s="23" t="s">
         <v>594</v>
@@ -4842,7 +4836,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="35"/>
       <c r="B42" s="23" t="s">
         <v>614</v>
@@ -4863,7 +4857,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="35"/>
       <c r="B43" s="23" t="s">
         <v>615</v>
@@ -4884,7 +4878,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="35"/>
       <c r="B44" s="23" t="s">
         <v>616</v>
@@ -4905,7 +4899,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="35"/>
       <c r="B45" s="23" t="s">
         <v>617</v>
@@ -4926,7 +4920,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="35"/>
       <c r="B46" s="23" t="s">
         <v>618</v>
@@ -4947,7 +4941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="35"/>
       <c r="B47" s="24" t="s">
         <v>609</v>
@@ -4968,7 +4962,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="36"/>
       <c r="B48" s="16" t="s">
         <v>619</v>
@@ -4989,7 +4983,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="8">
         <v>5</v>
       </c>
@@ -5012,7 +5006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="32"/>
       <c r="B50" s="26" t="s">
         <v>593</v>
@@ -5033,7 +5027,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="32"/>
       <c r="B51" s="26" t="s">
         <v>594</v>
@@ -5054,7 +5048,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="32"/>
       <c r="B52" s="26" t="s">
         <v>621</v>
@@ -5075,7 +5069,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="32"/>
       <c r="B53" s="26" t="s">
         <v>622</v>
@@ -5096,7 +5090,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="32"/>
       <c r="B54" s="26" t="s">
         <v>623</v>
@@ -5117,7 +5111,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="26" t="s">
         <v>624</v>
@@ -5138,7 +5132,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="26" t="s">
         <v>625</v>
@@ -5159,7 +5153,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="27" t="s">
         <v>609</v>
@@ -5180,7 +5174,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="25" t="s">
         <v>626</v>
@@ -5201,7 +5195,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="34">
         <v>6</v>
       </c>
@@ -5224,7 +5218,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="35"/>
       <c r="B60" s="23" t="s">
         <v>593</v>
@@ -5245,7 +5239,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="35"/>
       <c r="B61" s="23" t="s">
         <v>594</v>
@@ -5266,7 +5260,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="35"/>
       <c r="B62" s="23" t="s">
         <v>628</v>
@@ -5287,7 +5281,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="35"/>
       <c r="B63" s="23" t="s">
         <v>629</v>
@@ -5308,7 +5302,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="35"/>
       <c r="B64" s="23" t="s">
         <v>630</v>
@@ -5329,7 +5323,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="35"/>
       <c r="B65" s="23" t="s">
         <v>631</v>
@@ -5350,7 +5344,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="35"/>
       <c r="B66" s="23" t="s">
         <v>632</v>
@@ -5371,7 +5365,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="35"/>
       <c r="B67" s="24" t="s">
         <v>609</v>
@@ -5392,7 +5386,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="36"/>
       <c r="B68" s="16" t="s">
         <v>626</v>
@@ -5413,7 +5407,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="8">
         <v>7</v>
       </c>
@@ -5436,7 +5430,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="32"/>
       <c r="B70" s="26" t="s">
         <v>593</v>
@@ -5457,7 +5451,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="32"/>
       <c r="B71" s="26" t="s">
         <v>594</v>
@@ -5478,7 +5472,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="32"/>
       <c r="B72" s="26" t="s">
         <v>634</v>
@@ -5499,7 +5493,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="32"/>
       <c r="B73" s="26" t="s">
         <v>635</v>
@@ -5520,7 +5514,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="32"/>
       <c r="B74" s="26" t="s">
         <v>636</v>
@@ -5541,7 +5535,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="32"/>
       <c r="B75" s="26" t="s">
         <v>637</v>
@@ -5562,7 +5556,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="32"/>
       <c r="B76" s="26" t="s">
         <v>638</v>
@@ -5583,7 +5577,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" s="32"/>
       <c r="B77" s="27" t="s">
         <v>609</v>
@@ -5604,7 +5598,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="33"/>
       <c r="B78" s="25" t="s">
         <v>639</v>
@@ -5625,7 +5619,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="34">
         <v>8</v>
       </c>
@@ -5648,7 +5642,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="35"/>
       <c r="B80" s="23" t="s">
         <v>593</v>
@@ -5669,7 +5663,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="35"/>
       <c r="B81" s="23" t="s">
         <v>594</v>
@@ -5690,7 +5684,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="35"/>
       <c r="B82" s="23" t="s">
         <v>641</v>
@@ -5711,7 +5705,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="35"/>
       <c r="B83" s="23" t="s">
         <v>642</v>
@@ -5732,7 +5726,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="35"/>
       <c r="B84" s="23" t="s">
         <v>643</v>
@@ -5753,7 +5747,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="35"/>
       <c r="B85" s="23" t="s">
         <v>644</v>
@@ -5774,7 +5768,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="35"/>
       <c r="B86" s="23" t="s">
         <v>645</v>
@@ -5795,7 +5789,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="35"/>
       <c r="B87" s="24" t="s">
         <v>609</v>
@@ -5816,7 +5810,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="36"/>
       <c r="B88" s="16" t="s">
         <v>646</v>
@@ -5837,7 +5831,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="8">
         <v>9</v>
       </c>
@@ -5860,7 +5854,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="32"/>
       <c r="B90" s="26" t="s">
         <v>593</v>
@@ -5881,7 +5875,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="32"/>
       <c r="B91" s="26" t="s">
         <v>594</v>
@@ -5902,7 +5896,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="32"/>
       <c r="B92" s="26" t="s">
         <v>648</v>
@@ -5923,7 +5917,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="32"/>
       <c r="B93" s="26" t="s">
         <v>649</v>
@@ -5944,7 +5938,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="32"/>
       <c r="B94" s="26" t="s">
         <v>600</v>
@@ -5965,7 +5959,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="32"/>
       <c r="B95" s="26" t="s">
         <v>650</v>
@@ -5986,7 +5980,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" s="32"/>
       <c r="B96" s="26" t="s">
         <v>651</v>
@@ -6007,7 +6001,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" s="32"/>
       <c r="B97" s="27" t="s">
         <v>609</v>
@@ -6028,7 +6022,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
       <c r="A98" s="33"/>
       <c r="B98" s="25" t="s">
         <v>652</v>
@@ -6049,7 +6043,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="A99" s="34">
         <v>10</v>
       </c>
@@ -6072,7 +6066,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" s="35"/>
       <c r="B100" s="23" t="s">
         <v>593</v>
@@ -6093,7 +6087,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" s="35"/>
       <c r="B101" s="23" t="s">
         <v>594</v>
@@ -6114,24 +6108,24 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="A102" s="35"/>
       <c r="B102" s="23" t="s">
         <v>654</v>
       </c>
       <c r="C102" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
       <c r="A103" s="35"/>
       <c r="B103" s="23" t="s">
         <v>655</v>
@@ -6152,7 +6146,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="35"/>
       <c r="B104" s="23" t="s">
         <v>656</v>
@@ -6173,7 +6167,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
       <c r="A105" s="35"/>
       <c r="B105" s="23" t="s">
         <v>658</v>
@@ -6194,7 +6188,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
       <c r="A106" s="35"/>
       <c r="B106" s="23" t="s">
         <v>657</v>
@@ -6215,7 +6209,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
       <c r="A107" s="35"/>
       <c r="B107" s="24" t="s">
         <v>609</v>
@@ -6236,7 +6230,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
       <c r="A108" s="36"/>
       <c r="B108" s="16" t="s">
         <v>652</v>
@@ -6257,7 +6251,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
       <c r="A109" s="8">
         <v>11</v>
       </c>
@@ -6280,7 +6274,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="A110" s="32"/>
       <c r="B110" s="26" t="s">
         <v>593</v>
@@ -6299,7 +6293,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
       <c r="A111" s="32"/>
       <c r="B111" s="26" t="s">
         <v>594</v>
@@ -6318,7 +6312,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
       <c r="A112" s="32"/>
       <c r="B112" s="26" t="s">
         <v>660</v>
@@ -6339,7 +6333,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1">
       <c r="A113" s="32"/>
       <c r="B113" s="26" t="s">
         <v>661</v>
@@ -6360,7 +6354,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1">
       <c r="A114" s="32"/>
       <c r="B114" s="26" t="s">
         <v>662</v>
@@ -6381,7 +6375,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1">
       <c r="A115" s="32"/>
       <c r="B115" s="26" t="s">
         <v>663</v>
@@ -6402,7 +6396,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1">
       <c r="A116" s="32"/>
       <c r="B116" s="26" t="s">
         <v>598</v>
@@ -6423,7 +6417,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1">
       <c r="A117" s="32"/>
       <c r="B117" s="27" t="s">
         <v>609</v>
@@ -6444,24 +6438,24 @@
         <v>538</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1">
       <c r="A118" s="33"/>
       <c r="B118" s="25" t="s">
         <v>664</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1">
       <c r="A119" s="34">
         <v>12</v>
       </c>
@@ -6484,7 +6478,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1">
       <c r="A120" s="35"/>
       <c r="B120" s="23" t="s">
         <v>593</v>
@@ -6509,7 +6503,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1">
       <c r="A121" s="35"/>
       <c r="B121" s="23" t="s">
         <v>594</v>
@@ -6530,7 +6524,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1">
       <c r="A122" s="35"/>
       <c r="B122" s="23" t="s">
         <v>666</v>
@@ -6551,7 +6545,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1">
       <c r="A123" s="35"/>
       <c r="B123" s="23" t="s">
         <v>667</v>
@@ -6572,7 +6566,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1">
       <c r="A124" s="35"/>
       <c r="B124" s="23" t="s">
         <v>668</v>
@@ -6593,7 +6587,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1">
       <c r="A125" s="35"/>
       <c r="B125" s="23" t="s">
         <v>669</v>
@@ -6614,7 +6608,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1">
       <c r="A126" s="35"/>
       <c r="B126" s="23" t="s">
         <v>670</v>
@@ -6635,7 +6629,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1">
       <c r="A127" s="35"/>
       <c r="B127" s="24" t="s">
         <v>609</v>
@@ -6656,7 +6650,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1">
       <c r="A128" s="36"/>
       <c r="B128" s="16" t="s">
         <v>680</v>
@@ -6677,7 +6671,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
       <c r="A129" s="8">
         <v>13</v>
       </c>
@@ -6700,7 +6694,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
       <c r="A130" s="32"/>
       <c r="B130" s="26" t="s">
         <v>593</v>
@@ -6713,7 +6707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="32"/>
       <c r="B131" s="26" t="s">
         <v>594</v>
@@ -6726,7 +6720,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1">
       <c r="A132" s="32"/>
       <c r="B132" s="26" t="s">
         <v>672</v>
@@ -6739,24 +6733,24 @@
         <v>588</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1">
       <c r="A133" s="32"/>
       <c r="B133" s="26" t="s">
         <v>673</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1">
       <c r="A134" s="32"/>
       <c r="B134" s="26" t="s">
         <v>674</v>
@@ -6769,24 +6763,24 @@
         <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1">
       <c r="A135" s="32"/>
       <c r="B135" s="26" t="s">
         <v>675</v>
       </c>
       <c r="C135" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1">
       <c r="A136" s="32"/>
       <c r="B136" s="26" t="s">
         <v>676</v>
@@ -6799,1164 +6793,1164 @@
         <v>589</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1">
       <c r="A137" s="32"/>
       <c r="B137" s="27" t="s">
         <v>609</v>
       </c>
       <c r="C137" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1">
       <c r="A138" s="33"/>
       <c r="B138" s="25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1">
       <c r="A139" s="34">
         <v>14</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1">
       <c r="A140" s="43"/>
       <c r="B140" s="23" t="s">
         <v>593</v>
       </c>
       <c r="C140" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1">
       <c r="A141" s="43"/>
       <c r="B141" s="23" t="s">
         <v>594</v>
       </c>
       <c r="C141" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="E141" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1">
       <c r="A142" s="43"/>
       <c r="B142" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C142" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>708</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1">
       <c r="A143" s="43"/>
       <c r="B143" s="23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C143" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="E143" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1">
       <c r="A144" s="43"/>
       <c r="B144" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C144" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="G144" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1">
       <c r="A145" s="43"/>
       <c r="B145" s="23" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="E145" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="F145" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="G145" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1">
       <c r="A146" s="43"/>
       <c r="B146" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E146" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="G146" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1">
       <c r="A147" s="43"/>
       <c r="B147" s="24" t="s">
         <v>609</v>
       </c>
       <c r="C147" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="G147" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1">
       <c r="A148" s="44"/>
       <c r="B148" s="38" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="F148" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="G148" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1">
       <c r="A149" s="8">
         <v>15</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C149" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1">
       <c r="A150" s="32"/>
       <c r="B150" s="26" t="s">
         <v>593</v>
       </c>
       <c r="C150" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1">
       <c r="A151" s="32"/>
       <c r="B151" s="26" t="s">
         <v>594</v>
       </c>
       <c r="C151" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1">
       <c r="A152" s="32"/>
       <c r="B152" s="26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C152" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="G152" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1">
       <c r="A153" s="32"/>
       <c r="B153" s="26" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C153" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1">
       <c r="A154" s="32"/>
       <c r="B154" s="26" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C154" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1">
       <c r="A155" s="32"/>
       <c r="B155" s="26" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C155" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1">
       <c r="A156" s="32"/>
       <c r="B156" s="26" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C156" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
       <c r="A157" s="32"/>
       <c r="B157" s="27" t="s">
         <v>609</v>
       </c>
       <c r="C157" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1">
       <c r="A158" s="42"/>
       <c r="B158" s="37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C158" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1">
       <c r="A159" s="34">
         <v>16</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C159" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="F159" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1">
       <c r="A160" s="35"/>
       <c r="B160" s="23" t="s">
         <v>593</v>
       </c>
       <c r="C160" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="F160" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="G160" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="G160" s="4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1">
       <c r="A161" s="35"/>
       <c r="B161" s="23" t="s">
         <v>594</v>
       </c>
       <c r="C161" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="G161" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1">
       <c r="A162" s="35"/>
       <c r="B162" s="40" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C162" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="G162" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1">
       <c r="A163" s="35"/>
       <c r="B163" s="40" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C163" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="F163" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="G163" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="G163" s="4" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1">
       <c r="A164" s="35"/>
       <c r="B164" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C164" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="E164" s="4" t="s">
+      <c r="F164" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="G164" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1">
       <c r="A165" s="35"/>
       <c r="B165" s="40" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C165" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="F165" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="G165" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1">
       <c r="A166" s="35"/>
       <c r="B166" s="40" t="s">
         <v>625</v>
       </c>
       <c r="C166" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="E166" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="F166" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="G166" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1">
       <c r="A167" s="41"/>
       <c r="B167" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C167" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="E167" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="F167" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="G167" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="G167" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1">
       <c r="A168" s="41"/>
       <c r="B168" s="38" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C168" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="E168" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="F168" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="G168" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1">
       <c r="A169" s="8">
         <v>17</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C169" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="G169" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="G169" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1">
       <c r="A170" s="32"/>
       <c r="B170" s="21" t="s">
         <v>593</v>
       </c>
       <c r="C170" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1">
       <c r="A171" s="32"/>
       <c r="B171" s="21" t="s">
         <v>594</v>
       </c>
       <c r="C171" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="G171" s="2" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1">
       <c r="A172" s="32"/>
       <c r="B172" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C172" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="G172" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1">
       <c r="A173" s="32"/>
       <c r="B173" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C173" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1">
       <c r="A174" s="32"/>
       <c r="B174" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C174" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="G174" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1">
       <c r="A175" s="32"/>
       <c r="B175" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E175" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1">
       <c r="A176" s="32"/>
       <c r="B176" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C176" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1">
       <c r="A177" s="32"/>
       <c r="B177" s="37" t="s">
         <v>609</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="G177" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1">
       <c r="A178" s="39"/>
       <c r="B178" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C178" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="G178" s="3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:7" ht="15.75" customHeight="1">
       <c r="A179" s="34">
         <v>18</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C179" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="E179" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="F179" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="G179" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="G179" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:7" ht="15.75" customHeight="1">
       <c r="A180" s="35"/>
       <c r="B180" s="23" t="s">
         <v>593</v>
       </c>
       <c r="C180" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="E180" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="G180" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="G180" s="4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:7" ht="15.75" customHeight="1">
       <c r="A181" s="35"/>
       <c r="B181" s="23" t="s">
         <v>594</v>
       </c>
       <c r="C181" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="E181" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="F181" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="G181" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="G181" s="4" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:7" ht="15.75" customHeight="1">
       <c r="A182" s="35"/>
       <c r="B182" s="40" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F182" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:7" ht="15.75" customHeight="1">
       <c r="A183" s="35"/>
       <c r="B183" s="40" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C183" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="E183" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="F183" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="G183" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:7" ht="15.75" customHeight="1">
       <c r="A184" s="35"/>
       <c r="B184" s="40" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C184" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="E184" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="F184" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="G184" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="G184" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="35"/>
       <c r="B185" s="45" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D185" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="F185" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="G185" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="G185" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:7" ht="15.75" customHeight="1">
       <c r="A186" s="8">
         <v>19</v>
       </c>
       <c r="B186" s="46" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C186" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1">
       <c r="A187" s="42"/>
       <c r="B187" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C187" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="F187" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="G187" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:7" ht="15.75" customHeight="1">
       <c r="A188" s="42"/>
       <c r="B188" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C188" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="G188" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1">
       <c r="A189" s="32"/>
       <c r="B189" s="26" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C189" s="30" t="s">
+        <v>915</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="G189" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:7" ht="15.75" customHeight="1">
       <c r="A190" s="32"/>
       <c r="B190" s="26" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C190" s="30" t="s">
+        <v>920</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="F190" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:7" ht="15.75" customHeight="1">
       <c r="A191" s="32"/>
       <c r="B191" s="26" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C191" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="F191" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="G191" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:7" ht="15.75" customHeight="1">
       <c r="A192" s="33"/>
       <c r="B192" s="47" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C192" s="30" t="s">
+        <v>925</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="F192" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="G192" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
   </sheetData>
